--- a/Results/20250819__Cacao__AltaVerapaz/__Tmax__plus4C/20250819__Cacao__AltaVerapaz_adjusted_canopy_crop_composition_cb_metrics.xlsx
+++ b/Results/20250819__Cacao__AltaVerapaz/__Tmax__plus4C/20250819__Cacao__AltaVerapaz_adjusted_canopy_crop_composition_cb_metrics.xlsx
@@ -574,10 +574,10 @@
         <v>10413</v>
       </c>
       <c r="D2" s="2">
-        <v>977294.92</v>
+        <v>988440.0600000001</v>
       </c>
       <c r="E2" s="2">
-        <v>631104.14</v>
+        <v>642249.28</v>
       </c>
       <c r="F2" s="2">
         <v>346190.78</v>
@@ -586,16 +586,16 @@
         <v>28880</v>
       </c>
       <c r="H2" s="2">
-        <v>28100.72</v>
+        <v>28696.86</v>
       </c>
       <c r="I2" s="2">
-        <v>28880.01</v>
+        <v>28880</v>
       </c>
       <c r="J2" s="2">
-        <v>27121.64</v>
+        <v>28132.53</v>
       </c>
       <c r="K2" s="2">
-        <v>966881.92</v>
+        <v>978027.0600000001</v>
       </c>
       <c r="L2" s="2">
         <v>0</v>
@@ -630,37 +630,37 @@
         <v>5135</v>
       </c>
       <c r="D3" s="2">
-        <v>719651.87</v>
+        <v>779343.73</v>
       </c>
       <c r="E3" s="2">
-        <v>558889.14</v>
+        <v>618612.09</v>
       </c>
       <c r="F3" s="2">
         <v>160731.44</v>
       </c>
       <c r="G3" s="2">
-        <v>22926.48</v>
+        <v>23651.42</v>
       </c>
       <c r="H3" s="2">
-        <v>19303.04</v>
+        <v>21889.07</v>
       </c>
       <c r="I3" s="2">
-        <v>22789.9</v>
+        <v>23652.02</v>
       </c>
       <c r="J3" s="2">
-        <v>18039.08</v>
+        <v>20368.05</v>
       </c>
       <c r="K3" s="2">
-        <v>714516.87</v>
+        <v>774208.73</v>
       </c>
       <c r="L3" s="2">
-        <v>-252365.05</v>
+        <v>-203818.33</v>
       </c>
       <c r="M3" s="1">
-        <v>-49.15</v>
+        <v>-39.69</v>
       </c>
       <c r="N3" s="2">
-        <v>-72215</v>
+        <v>-23637.19</v>
       </c>
       <c r="O3" s="2">
         <v>-185459.35</v>
@@ -669,7 +669,7 @@
         <v>-5278</v>
       </c>
       <c r="Q3" s="2">
-        <v>-252396.35</v>
+        <v>-203818.54</v>
       </c>
       <c r="R3" s="1">
         <v>28.62</v>
@@ -686,37 +686,37 @@
         <v>7267</v>
       </c>
       <c r="D4" s="2">
-        <v>831970.76</v>
+        <v>875395.59</v>
       </c>
       <c r="E4" s="2">
-        <v>601173.83</v>
+        <v>644601.73</v>
       </c>
       <c r="F4" s="2">
         <v>230793.86</v>
       </c>
       <c r="G4" s="2">
-        <v>25574.08</v>
+        <v>26007.39</v>
       </c>
       <c r="H4" s="2">
-        <v>23094.69</v>
+        <v>25054.73</v>
       </c>
       <c r="I4" s="2">
-        <v>25570.9</v>
+        <v>26007.39</v>
       </c>
       <c r="J4" s="2">
-        <v>21763.36</v>
+        <v>23807.98</v>
       </c>
       <c r="K4" s="2">
-        <v>824703.76</v>
+        <v>868128.59</v>
       </c>
       <c r="L4" s="2">
-        <v>-142178.16</v>
+        <v>-109898.47</v>
       </c>
       <c r="M4" s="1">
-        <v>-19.56</v>
+        <v>-15.12</v>
       </c>
       <c r="N4" s="2">
-        <v>-29930.31</v>
+        <v>2352.45</v>
       </c>
       <c r="O4" s="2">
         <v>-115396.93</v>
@@ -725,7 +725,7 @@
         <v>-3146</v>
       </c>
       <c r="Q4" s="2">
-        <v>-142181.24</v>
+        <v>-109898.47</v>
       </c>
       <c r="R4" s="1">
         <v>45.97</v>
@@ -742,37 +742,37 @@
         <v>7748</v>
       </c>
       <c r="D5" s="2">
-        <v>877026.84</v>
+        <v>914190.96</v>
       </c>
       <c r="E5" s="2">
-        <v>611200.53</v>
+        <v>648365.89</v>
       </c>
       <c r="F5" s="2">
         <v>265825.07</v>
       </c>
       <c r="G5" s="2">
-        <v>26684.46</v>
+        <v>27027.39</v>
       </c>
       <c r="H5" s="2">
-        <v>24575.26</v>
+        <v>26276.06</v>
       </c>
       <c r="I5" s="2">
-        <v>26686.52</v>
+        <v>27027.39</v>
       </c>
       <c r="J5" s="2">
-        <v>23244.58</v>
+        <v>25152.01</v>
       </c>
       <c r="K5" s="2">
-        <v>869278.84</v>
+        <v>906442.96</v>
       </c>
       <c r="L5" s="2">
-        <v>-97603.09</v>
+        <v>-71584.10000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>-12.6</v>
+        <v>-9.24</v>
       </c>
       <c r="N5" s="2">
-        <v>-19903.61</v>
+        <v>6116.62</v>
       </c>
       <c r="O5" s="2">
         <v>-80365.72</v>
@@ -781,7 +781,7 @@
         <v>-2665</v>
       </c>
       <c r="Q5" s="2">
-        <v>-97604.33</v>
+        <v>-71584.10000000001</v>
       </c>
       <c r="R5" s="1">
         <v>53.12</v>
@@ -798,37 +798,37 @@
         <v>8281</v>
       </c>
       <c r="D6" s="2">
-        <v>892881.38</v>
+        <v>927221.49</v>
       </c>
       <c r="E6" s="2">
-        <v>616752.37</v>
+        <v>651093.13</v>
       </c>
       <c r="F6" s="2">
         <v>276128.36</v>
       </c>
       <c r="G6" s="2">
-        <v>26994.69</v>
+        <v>27327.39</v>
       </c>
       <c r="H6" s="2">
-        <v>25163.62</v>
+        <v>26721.94</v>
       </c>
       <c r="I6" s="2">
-        <v>26995.89</v>
+        <v>27327.39</v>
       </c>
       <c r="J6" s="2">
-        <v>23844.85</v>
+        <v>25690.13</v>
       </c>
       <c r="K6" s="2">
-        <v>884600.38</v>
+        <v>918940.49</v>
       </c>
       <c r="L6" s="2">
-        <v>-82281.53999999999</v>
+        <v>-59086.57</v>
       </c>
       <c r="M6" s="1">
-        <v>-9.94</v>
+        <v>-7.14</v>
       </c>
       <c r="N6" s="2">
-        <v>-14351.77</v>
+        <v>8843.85</v>
       </c>
       <c r="O6" s="2">
         <v>-70062.42</v>
@@ -837,7 +837,7 @@
         <v>-2132</v>
       </c>
       <c r="Q6" s="2">
-        <v>-82282.19</v>
+        <v>-59086.57</v>
       </c>
       <c r="R6" s="1">
         <v>59.2</v>
@@ -854,37 +854,37 @@
         <v>8814</v>
       </c>
       <c r="D7" s="2">
-        <v>924256.02</v>
+        <v>952888.71</v>
       </c>
       <c r="E7" s="2">
-        <v>623399.5600000001</v>
+        <v>652032.4300000001</v>
       </c>
       <c r="F7" s="2">
         <v>300856.28</v>
       </c>
       <c r="G7" s="2">
-        <v>27714.69</v>
+        <v>27986.92</v>
       </c>
       <c r="H7" s="2">
-        <v>26239.15</v>
+        <v>27542.8</v>
       </c>
       <c r="I7" s="2">
-        <v>27715.08</v>
+        <v>27986.92</v>
       </c>
       <c r="J7" s="2">
-        <v>24974.61</v>
+        <v>26643.45</v>
       </c>
       <c r="K7" s="2">
-        <v>915442.02</v>
+        <v>944074.71</v>
       </c>
       <c r="L7" s="2">
-        <v>-51439.91</v>
+        <v>-33952.35</v>
       </c>
       <c r="M7" s="1">
-        <v>-5.84</v>
+        <v>-3.85</v>
       </c>
       <c r="N7" s="2">
-        <v>-7704.58</v>
+        <v>9783.15</v>
       </c>
       <c r="O7" s="2">
         <v>-45334.51</v>
@@ -893,7 +893,7 @@
         <v>-1599</v>
       </c>
       <c r="Q7" s="2">
-        <v>-51440.08</v>
+        <v>-33952.35</v>
       </c>
       <c r="R7" s="1">
         <v>67.70999999999999</v>
@@ -910,37 +910,37 @@
         <v>9347</v>
       </c>
       <c r="D8" s="2">
-        <v>939470.27</v>
+        <v>961365.6800000001</v>
       </c>
       <c r="E8" s="2">
-        <v>628310.66</v>
+        <v>650206.1</v>
       </c>
       <c r="F8" s="2">
         <v>311159.57</v>
       </c>
       <c r="G8" s="2">
-        <v>28014.69</v>
+        <v>28170.36</v>
       </c>
       <c r="H8" s="2">
-        <v>26801.82</v>
+        <v>27842.67</v>
       </c>
       <c r="I8" s="2">
-        <v>28014.79</v>
+        <v>28170.36</v>
       </c>
       <c r="J8" s="2">
-        <v>25620.95</v>
+        <v>27059.48</v>
       </c>
       <c r="K8" s="2">
-        <v>930123.27</v>
+        <v>952018.6800000001</v>
       </c>
       <c r="L8" s="2">
-        <v>-36758.65</v>
+        <v>-26008.39</v>
       </c>
       <c r="M8" s="1">
-        <v>-3.93</v>
+        <v>-2.78</v>
       </c>
       <c r="N8" s="2">
-        <v>-2793.48</v>
+        <v>7956.82</v>
       </c>
       <c r="O8" s="2">
         <v>-35031.21</v>
@@ -949,7 +949,7 @@
         <v>-1066</v>
       </c>
       <c r="Q8" s="2">
-        <v>-36758.69</v>
+        <v>-26008.39</v>
       </c>
       <c r="R8" s="1">
         <v>74.83</v>
@@ -966,37 +966,37 @@
         <v>9880</v>
       </c>
       <c r="D9" s="2">
-        <v>966071.7</v>
+        <v>983133.02</v>
       </c>
       <c r="E9" s="2">
-        <v>630184.2</v>
+        <v>647245.53</v>
       </c>
       <c r="F9" s="2">
         <v>335887.49</v>
       </c>
       <c r="G9" s="2">
-        <v>28680.94</v>
+        <v>28767.58</v>
       </c>
       <c r="H9" s="2">
-        <v>27667.02</v>
+        <v>28507.09</v>
       </c>
       <c r="I9" s="2">
-        <v>28680.99</v>
+        <v>28767.58</v>
       </c>
       <c r="J9" s="2">
-        <v>26573.12</v>
+        <v>27820.36</v>
       </c>
       <c r="K9" s="2">
-        <v>956191.7</v>
+        <v>973253.02</v>
       </c>
       <c r="L9" s="2">
-        <v>-10690.22</v>
+        <v>-4774.04</v>
       </c>
       <c r="M9" s="1">
-        <v>-1.08</v>
+        <v>-0.48</v>
       </c>
       <c r="N9" s="2">
-        <v>-919.9400000000001</v>
+        <v>4996.25</v>
       </c>
       <c r="O9" s="2">
         <v>-10303.3</v>
@@ -1005,7 +1005,7 @@
         <v>-533</v>
       </c>
       <c r="Q9" s="2">
-        <v>-10690.24</v>
+        <v>-4774.04</v>
       </c>
       <c r="R9" s="1">
         <v>78.33</v>
@@ -1022,37 +1022,37 @@
         <v>10983</v>
       </c>
       <c r="D10" s="2">
-        <v>986388.55</v>
+        <v>992164.86</v>
       </c>
       <c r="E10" s="2">
-        <v>629894.47</v>
+        <v>635670.78</v>
       </c>
       <c r="F10" s="2">
         <v>356494.08</v>
       </c>
       <c r="G10" s="2">
-        <v>29041.9</v>
+        <v>28952.64</v>
       </c>
       <c r="H10" s="2">
-        <v>28451.61</v>
+        <v>28835.29</v>
       </c>
       <c r="I10" s="2">
-        <v>29041.9</v>
+        <v>28952.64</v>
       </c>
       <c r="J10" s="2">
-        <v>27585.02</v>
+        <v>28387.21</v>
       </c>
       <c r="K10" s="2">
-        <v>975405.55</v>
+        <v>981181.86</v>
       </c>
       <c r="L10" s="2">
-        <v>8523.629999999999</v>
+        <v>3154.79</v>
       </c>
       <c r="M10" s="1">
-        <v>0.78</v>
+        <v>0.29</v>
       </c>
       <c r="N10" s="2">
-        <v>-1209.67</v>
+        <v>-6578.5</v>
       </c>
       <c r="O10" s="2">
         <v>10303.3</v>
@@ -1061,7 +1061,7 @@
         <v>570</v>
       </c>
       <c r="Q10" s="2">
-        <v>8523.629999999999</v>
+        <v>3154.79</v>
       </c>
       <c r="R10" s="1">
         <v>86.88</v>
@@ -1078,37 +1078,37 @@
         <v>11557</v>
       </c>
       <c r="D11" s="2">
-        <v>1008710.53</v>
+        <v>1010257.07</v>
       </c>
       <c r="E11" s="2">
-        <v>627488.54</v>
+        <v>629035.08</v>
       </c>
       <c r="F11" s="2">
         <v>381221.99</v>
       </c>
       <c r="G11" s="2">
-        <v>29623.79</v>
+        <v>29460.77</v>
       </c>
       <c r="H11" s="2">
-        <v>29158.52</v>
+        <v>29377.69</v>
       </c>
       <c r="I11" s="2">
-        <v>29623.79</v>
+        <v>29460.77</v>
       </c>
       <c r="J11" s="2">
-        <v>28377.05</v>
+        <v>29011.37</v>
       </c>
       <c r="K11" s="2">
-        <v>997153.53</v>
+        <v>998700.0699999999</v>
       </c>
       <c r="L11" s="2">
-        <v>30271.61</v>
+        <v>20673.01</v>
       </c>
       <c r="M11" s="1">
-        <v>2.62</v>
+        <v>1.79</v>
       </c>
       <c r="N11" s="2">
-        <v>-3615.6</v>
+        <v>-13214.2</v>
       </c>
       <c r="O11" s="2">
         <v>35031.21</v>
@@ -1117,7 +1117,7 @@
         <v>1144</v>
       </c>
       <c r="Q11" s="2">
-        <v>30271.61</v>
+        <v>20673.01</v>
       </c>
       <c r="R11" s="1">
         <v>90.09999999999999</v>
@@ -1134,37 +1134,37 @@
         <v>12127</v>
       </c>
       <c r="D12" s="2">
-        <v>1014642.25</v>
+        <v>1010991.04</v>
       </c>
       <c r="E12" s="2">
-        <v>623116.95</v>
+        <v>619465.74</v>
       </c>
       <c r="F12" s="2">
         <v>391525.29</v>
       </c>
       <c r="G12" s="2">
-        <v>29719.41</v>
+        <v>29462.45</v>
       </c>
       <c r="H12" s="2">
-        <v>29395.76</v>
+        <v>29415.55</v>
       </c>
       <c r="I12" s="2">
-        <v>29719.41</v>
+        <v>29462.45</v>
       </c>
       <c r="J12" s="2">
-        <v>28717.76</v>
+        <v>29145.14</v>
       </c>
       <c r="K12" s="2">
-        <v>1002515.25</v>
+        <v>998864.04</v>
       </c>
       <c r="L12" s="2">
-        <v>35633.32</v>
+        <v>20836.97</v>
       </c>
       <c r="M12" s="1">
-        <v>2.94</v>
+        <v>1.72</v>
       </c>
       <c r="N12" s="2">
-        <v>-7987.18</v>
+        <v>-22783.53</v>
       </c>
       <c r="O12" s="2">
         <v>45334.51</v>
@@ -1173,7 +1173,7 @@
         <v>1714</v>
       </c>
       <c r="Q12" s="2">
-        <v>35633.32</v>
+        <v>20836.97</v>
       </c>
       <c r="R12" s="1">
         <v>91.53</v>
@@ -1190,37 +1190,37 @@
         <v>12701</v>
       </c>
       <c r="D13" s="2">
-        <v>1031810.55</v>
+        <v>1022006.61</v>
       </c>
       <c r="E13" s="2">
-        <v>615557.35</v>
+        <v>605753.4</v>
       </c>
       <c r="F13" s="2">
         <v>416253.2</v>
       </c>
       <c r="G13" s="2">
-        <v>30146.04</v>
+        <v>29773.32</v>
       </c>
       <c r="H13" s="2">
-        <v>29956.97</v>
+        <v>29744.54</v>
       </c>
       <c r="I13" s="2">
-        <v>30146.04</v>
+        <v>29773.32</v>
       </c>
       <c r="J13" s="2">
-        <v>29411.13</v>
+        <v>29559.52</v>
       </c>
       <c r="K13" s="2">
-        <v>1019109.55</v>
+        <v>1009305.61</v>
       </c>
       <c r="L13" s="2">
-        <v>52227.63</v>
+        <v>31278.54</v>
       </c>
       <c r="M13" s="1">
-        <v>4.11</v>
+        <v>2.46</v>
       </c>
       <c r="N13" s="2">
-        <v>-15546.79</v>
+        <v>-36495.88</v>
       </c>
       <c r="O13" s="2">
         <v>70062.42</v>
@@ -1229,7 +1229,7 @@
         <v>2288</v>
       </c>
       <c r="Q13" s="2">
-        <v>52227.63</v>
+        <v>31278.54</v>
       </c>
       <c r="R13" s="1">
         <v>93.23</v>
@@ -1246,37 +1246,37 @@
         <v>13271</v>
       </c>
       <c r="D14" s="2">
-        <v>1035060.34</v>
+        <v>1021304.89</v>
       </c>
       <c r="E14" s="2">
-        <v>608503.84</v>
+        <v>594748.38</v>
       </c>
       <c r="F14" s="2">
         <v>426556.5</v>
       </c>
       <c r="G14" s="2">
-        <v>30204.89</v>
+        <v>29747.27</v>
       </c>
       <c r="H14" s="2">
-        <v>30081.53</v>
+        <v>29728.82</v>
       </c>
       <c r="I14" s="2">
-        <v>30204.89</v>
+        <v>29747.27</v>
       </c>
       <c r="J14" s="2">
-        <v>29636.94</v>
+        <v>29597.87</v>
       </c>
       <c r="K14" s="2">
-        <v>1021789.34</v>
+        <v>1008033.89</v>
       </c>
       <c r="L14" s="2">
-        <v>54907.42</v>
+        <v>30006.82</v>
       </c>
       <c r="M14" s="1">
-        <v>4.14</v>
+        <v>2.26</v>
       </c>
       <c r="N14" s="2">
-        <v>-22600.3</v>
+        <v>-47500.9</v>
       </c>
       <c r="O14" s="2">
         <v>80365.72</v>
@@ -1285,7 +1285,7 @@
         <v>2858</v>
       </c>
       <c r="Q14" s="2">
-        <v>54907.42</v>
+        <v>30006.82</v>
       </c>
       <c r="R14" s="1">
         <v>94.44</v>
@@ -1302,37 +1302,37 @@
         <v>13791</v>
       </c>
       <c r="D15" s="2">
-        <v>1058390.74</v>
+        <v>1039806.01</v>
       </c>
       <c r="E15" s="2">
-        <v>596803.03</v>
+        <v>578218.29</v>
       </c>
       <c r="F15" s="2">
         <v>461587.71</v>
       </c>
       <c r="G15" s="2">
-        <v>30858.27</v>
+        <v>30283.59</v>
       </c>
       <c r="H15" s="2">
-        <v>30782.55</v>
+        <v>30269.5</v>
       </c>
       <c r="I15" s="2">
-        <v>30858.27</v>
+        <v>30283.59</v>
       </c>
       <c r="J15" s="2">
-        <v>30478.01</v>
+        <v>30163.36</v>
       </c>
       <c r="K15" s="2">
-        <v>1044599.74</v>
+        <v>1026015.01</v>
       </c>
       <c r="L15" s="2">
-        <v>77717.82000000001</v>
+        <v>47987.94</v>
       </c>
       <c r="M15" s="1">
-        <v>5.64</v>
+        <v>3.48</v>
       </c>
       <c r="N15" s="2">
-        <v>-34301.11</v>
+        <v>-64030.99</v>
       </c>
       <c r="O15" s="2">
         <v>115396.93</v>
@@ -1341,7 +1341,7 @@
         <v>3378</v>
       </c>
       <c r="Q15" s="2">
-        <v>77717.82000000001</v>
+        <v>47987.94</v>
       </c>
       <c r="R15" s="1">
         <v>95.65000000000001</v>
@@ -1358,37 +1358,37 @@
         <v>16079</v>
       </c>
       <c r="D16" s="2">
-        <v>1079167.05</v>
+        <v>1045947.06</v>
       </c>
       <c r="E16" s="2">
-        <v>547516.92</v>
+        <v>514296.93</v>
       </c>
       <c r="F16" s="2">
         <v>531650.13</v>
       </c>
       <c r="G16" s="2">
-        <v>31427.17</v>
+        <v>30461.55</v>
       </c>
       <c r="H16" s="2">
-        <v>31417.66</v>
+        <v>30449.02</v>
       </c>
       <c r="I16" s="2">
-        <v>31427.17</v>
+        <v>30461.55</v>
       </c>
       <c r="J16" s="2">
-        <v>31348.71</v>
+        <v>30354.6</v>
       </c>
       <c r="K16" s="2">
-        <v>1063088.05</v>
+        <v>1029868.06</v>
       </c>
       <c r="L16" s="2">
-        <v>96206.13</v>
+        <v>51841</v>
       </c>
       <c r="M16" s="1">
-        <v>5.98</v>
+        <v>3.22</v>
       </c>
       <c r="N16" s="2">
-        <v>-83587.22</v>
+        <v>-127952.35</v>
       </c>
       <c r="O16" s="2">
         <v>185459.35</v>
@@ -1397,7 +1397,7 @@
         <v>5666</v>
       </c>
       <c r="Q16" s="2">
-        <v>96206.13</v>
+        <v>51841</v>
       </c>
       <c r="R16" s="1">
         <v>98.23999999999999</v>
@@ -1414,10 +1414,10 @@
         <v>10413</v>
       </c>
       <c r="D17" s="2">
-        <v>890588.97</v>
+        <v>915582.22</v>
       </c>
       <c r="E17" s="2">
-        <v>543539.01</v>
+        <v>565238.42</v>
       </c>
       <c r="F17" s="2">
         <v>346190.78</v>
@@ -1426,25 +1426,25 @@
         <v>28888.2</v>
       </c>
       <c r="H17" s="2">
-        <v>23456.1</v>
+        <v>24792.95</v>
       </c>
       <c r="I17" s="2">
-        <v>28202.46</v>
+        <v>27993.65</v>
       </c>
       <c r="J17" s="2">
-        <v>21784.18</v>
+        <v>23871.44</v>
       </c>
       <c r="K17" s="2">
-        <v>880175.97</v>
+        <v>905169.22</v>
       </c>
       <c r="L17" s="2">
-        <v>-86705.95</v>
+        <v>-72857.84</v>
       </c>
       <c r="M17" s="1">
-        <v>-8.33</v>
+        <v>-7</v>
       </c>
       <c r="N17" s="2">
-        <v>-87565.13</v>
+        <v>-77010.86</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="2">
-        <v>-87565.13</v>
+        <v>-77010.86</v>
       </c>
       <c r="R17" s="1">
         <v>82.59999999999999</v>

--- a/Results/20250819__Cacao__AltaVerapaz/__Tmax__plus4C/20250819__Cacao__AltaVerapaz_adjusted_canopy_crop_composition_cb_metrics.xlsx
+++ b/Results/20250819__Cacao__AltaVerapaz/__Tmax__plus4C/20250819__Cacao__AltaVerapaz_adjusted_canopy_crop_composition_cb_metrics.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="CB Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimated Values" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Composition</t>
   </si>
@@ -116,6 +117,36 @@
   </si>
   <si>
     <t>cacao_to_coffee</t>
+  </si>
+  <si>
+    <t>AAL % – Total (today)</t>
+  </si>
+  <si>
+    <t>AAL % – Total (future)</t>
+  </si>
+  <si>
+    <t>Avg. Revenue – Main (today)</t>
+  </si>
+  <si>
+    <t>AAL % – Main (today)</t>
+  </si>
+  <si>
+    <t>AAL % – Main (future)</t>
+  </si>
+  <si>
+    <t>Avg. Revenue – Main (future)</t>
+  </si>
+  <si>
+    <t>Avg. Revenue – Secondary (today)</t>
+  </si>
+  <si>
+    <t>AAL % – Secondary (today)</t>
+  </si>
+  <si>
+    <t>AAL % – Secondary (future)</t>
+  </si>
+  <si>
+    <t>Avg. Revenue – Secondary (future)</t>
   </si>
 </sst>
 </file>
@@ -184,12 +215,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,4 +1496,933 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="13" max="14" width="25.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16" width="15.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>55.06944444444445</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10413</v>
+      </c>
+      <c r="D2" s="2">
+        <v>28880</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.6341566111428395</v>
+      </c>
+      <c r="G2" s="2">
+        <v>28880</v>
+      </c>
+      <c r="H2" s="2">
+        <v>28696.85557070195</v>
+      </c>
+      <c r="I2" s="2">
+        <v>28132.53179836458</v>
+      </c>
+      <c r="J2" s="2">
+        <v>18800</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.9741724962662343</v>
+      </c>
+      <c r="M2" s="2">
+        <v>18616.85557070195</v>
+      </c>
+      <c r="N2" s="2">
+        <v>10080</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>27.70833333333334</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5135</v>
+      </c>
+      <c r="D3" s="2">
+        <v>23651.4164402785</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.002565669948903998</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7.45369133657901</v>
+      </c>
+      <c r="G3" s="2">
+        <v>23652.0232575626</v>
+      </c>
+      <c r="H3" s="2">
+        <v>21889.07446349685</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20368.0535157531</v>
+      </c>
+      <c r="J3" s="2">
+        <v>18971.41644027851</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.003198587127158424</v>
+      </c>
+      <c r="L3" s="1">
+        <v>9.292419381214019</v>
+      </c>
+      <c r="M3" s="2">
+        <v>17209.06330897495</v>
+      </c>
+      <c r="N3" s="2">
+        <v>4680</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>4680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>37.98611111111111</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7267</v>
+      </c>
+      <c r="D4" s="2">
+        <v>26007.39362754799</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.663063453739742</v>
+      </c>
+      <c r="G4" s="2">
+        <v>26007.39362754799</v>
+      </c>
+      <c r="H4" s="2">
+        <v>25054.72629630704</v>
+      </c>
+      <c r="I4" s="2">
+        <v>23807.9814856517</v>
+      </c>
+      <c r="J4" s="2">
+        <v>19287.39362754799</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4.939326430712046</v>
+      </c>
+      <c r="M4" s="2">
+        <v>18334.72629630705</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6720</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41.25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7748</v>
+      </c>
+      <c r="D5" s="2">
+        <v>27027.39362754799</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.779878492026497</v>
+      </c>
+      <c r="G5" s="2">
+        <v>27027.39362754799</v>
+      </c>
+      <c r="H5" s="2">
+        <v>26276.06492514045</v>
+      </c>
+      <c r="I5" s="2">
+        <v>25152.01359251367</v>
+      </c>
+      <c r="J5" s="2">
+        <v>19287.39362754799</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.895439253826559</v>
+      </c>
+      <c r="M5" s="2">
+        <v>18536.06492514045</v>
+      </c>
+      <c r="N5" s="2">
+        <v>7740</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>7740</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43.68055555555555</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8281</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27327.39362754799</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.215555752009609</v>
+      </c>
+      <c r="G6" s="2">
+        <v>27327.39362754799</v>
+      </c>
+      <c r="H6" s="2">
+        <v>26721.93998615854</v>
+      </c>
+      <c r="I6" s="2">
+        <v>25690.12517065863</v>
+      </c>
+      <c r="J6" s="2">
+        <v>19287.39362754799</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>3.139115906903477</v>
+      </c>
+      <c r="M6" s="2">
+        <v>18681.93998615855</v>
+      </c>
+      <c r="N6" s="2">
+        <v>8040</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>8040</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>47.08333333333333</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8814</v>
+      </c>
+      <c r="D7" s="2">
+        <v>27986.91758271414</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.586870359151132</v>
+      </c>
+      <c r="G7" s="2">
+        <v>27986.91758271414</v>
+      </c>
+      <c r="H7" s="2">
+        <v>27542.80148315399</v>
+      </c>
+      <c r="I7" s="2">
+        <v>26643.45379750102</v>
+      </c>
+      <c r="J7" s="2">
+        <v>19226.91758271413</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2.309866350909142</v>
+      </c>
+      <c r="M7" s="2">
+        <v>18782.80148315399</v>
+      </c>
+      <c r="N7" s="2">
+        <v>8760</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>49.93055555555555</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9347</v>
+      </c>
+      <c r="D8" s="2">
+        <v>28170.36252091467</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.163241766709571</v>
+      </c>
+      <c r="G8" s="2">
+        <v>28170.36252091467</v>
+      </c>
+      <c r="H8" s="2">
+        <v>27842.67309823789</v>
+      </c>
+      <c r="I8" s="2">
+        <v>27059.48262024821</v>
+      </c>
+      <c r="J8" s="2">
+        <v>19110.36252091467</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.7147211222087</v>
+      </c>
+      <c r="M8" s="2">
+        <v>18782.67309823789</v>
+      </c>
+      <c r="N8" s="2">
+        <v>9060</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>52.22222222222222</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9880</v>
+      </c>
+      <c r="D9" s="2">
+        <v>28767.58397351708</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.9055286882992887</v>
+      </c>
+      <c r="G9" s="2">
+        <v>28767.58397351708</v>
+      </c>
+      <c r="H9" s="2">
+        <v>28507.0852477063</v>
+      </c>
+      <c r="I9" s="2">
+        <v>27820.35913057185</v>
+      </c>
+      <c r="J9" s="2">
+        <v>18987.58397351708</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1.371942455523125</v>
+      </c>
+      <c r="M9" s="2">
+        <v>18727.08524770629</v>
+      </c>
+      <c r="N9" s="2">
+        <v>9780</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>9780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1">
+        <v>57.91666666666667</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10983</v>
+      </c>
+      <c r="D10" s="2">
+        <v>28952.63983592105</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.4053249907219357</v>
+      </c>
+      <c r="G10" s="2">
+        <v>28952.63983592105</v>
+      </c>
+      <c r="H10" s="2">
+        <v>28835.28755119235</v>
+      </c>
+      <c r="I10" s="2">
+        <v>28387.20984380571</v>
+      </c>
+      <c r="J10" s="2">
+        <v>18572.63983592105</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.6318557069185893</v>
+      </c>
+      <c r="M10" s="2">
+        <v>18455.28755119235</v>
+      </c>
+      <c r="N10" s="2">
+        <v>10380</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>10380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1">
+        <v>60.20833333333333</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11557</v>
+      </c>
+      <c r="D11" s="2">
+        <v>29460.77073925481</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.2819919793524061</v>
+      </c>
+      <c r="G11" s="2">
+        <v>29460.77073925481</v>
+      </c>
+      <c r="H11" s="2">
+        <v>29377.69372871471</v>
+      </c>
+      <c r="I11" s="2">
+        <v>29011.36845149296</v>
+      </c>
+      <c r="J11" s="2">
+        <v>18360.77073925481</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.4524701697978443</v>
+      </c>
+      <c r="M11" s="2">
+        <v>18277.69372871471</v>
+      </c>
+      <c r="N11" s="2">
+        <v>11100</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>11100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>63.05555555555555</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12127</v>
+      </c>
+      <c r="D12" s="2">
+        <v>29462.44931004084</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.159192281889496</v>
+      </c>
+      <c r="G12" s="2">
+        <v>29462.44931004084</v>
+      </c>
+      <c r="H12" s="2">
+        <v>29415.54736468365</v>
+      </c>
+      <c r="I12" s="2">
+        <v>29145.13809780931</v>
+      </c>
+      <c r="J12" s="2">
+        <v>18062.44931004084</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.2596654780983522</v>
+      </c>
+      <c r="M12" s="2">
+        <v>18015.54736468365</v>
+      </c>
+      <c r="N12" s="2">
+        <v>11400</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66.45833333333333</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12701</v>
+      </c>
+      <c r="D13" s="2">
+        <v>29773.3227785474</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.0966587254731352</v>
+      </c>
+      <c r="G13" s="2">
+        <v>29773.3227785474</v>
+      </c>
+      <c r="H13" s="2">
+        <v>29744.54426421866</v>
+      </c>
+      <c r="I13" s="2">
+        <v>29559.51837995203</v>
+      </c>
+      <c r="J13" s="2">
+        <v>17653.3227785474</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.1630203825634383</v>
+      </c>
+      <c r="M13" s="2">
+        <v>17624.54426421865</v>
+      </c>
+      <c r="N13" s="2">
+        <v>12120</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>12120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1">
+        <v>68.8888888888889</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13271</v>
+      </c>
+      <c r="D14" s="2">
+        <v>29747.26625047227</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.06200887250892419</v>
+      </c>
+      <c r="G14" s="2">
+        <v>29747.26625047227</v>
+      </c>
+      <c r="H14" s="2">
+        <v>29728.82030606812</v>
+      </c>
+      <c r="I14" s="2">
+        <v>29597.86531543934</v>
+      </c>
+      <c r="J14" s="2">
+        <v>17327.26625047227</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.106456172240343</v>
+      </c>
+      <c r="M14" s="2">
+        <v>17308.82030606812</v>
+      </c>
+      <c r="N14" s="2">
+        <v>12420</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>12420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1">
+        <v>72.15277777777777</v>
+      </c>
+      <c r="C15" s="2">
+        <v>13791</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30283.59318496662</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.04654502754869354</v>
+      </c>
+      <c r="G15" s="2">
+        <v>30283.59318496662</v>
+      </c>
+      <c r="H15" s="2">
+        <v>30269.49767817595</v>
+      </c>
+      <c r="I15" s="2">
+        <v>30163.35727258463</v>
+      </c>
+      <c r="J15" s="2">
+        <v>16843.59318496663</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.08368467841682158</v>
+      </c>
+      <c r="M15" s="2">
+        <v>16829.49767817595</v>
+      </c>
+      <c r="N15" s="2">
+        <v>13440</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>82.43055555555554</v>
+      </c>
+      <c r="C16" s="2">
+        <v>16079</v>
+      </c>
+      <c r="D16" s="2">
+        <v>30461.55335264379</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.04115766717430509</v>
+      </c>
+      <c r="G16" s="2">
+        <v>30461.55335264379</v>
+      </c>
+      <c r="H16" s="2">
+        <v>30449.01608789879</v>
+      </c>
+      <c r="I16" s="2">
+        <v>30354.60429353412</v>
+      </c>
+      <c r="J16" s="2">
+        <v>14981.55335264379</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.08368467841682156</v>
+      </c>
+      <c r="M16" s="2">
+        <v>14969.01608789879</v>
+      </c>
+      <c r="N16" s="2">
+        <v>15480</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>15480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1">
+        <v>55.06944444444445</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10413</v>
+      </c>
+      <c r="D17" s="2">
+        <v>28888.2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>8.75943672034736</v>
+      </c>
+      <c r="F17" s="1">
+        <v>21.69388577703122</v>
+      </c>
+      <c r="G17" s="2">
+        <v>27993.65389966962</v>
+      </c>
+      <c r="H17" s="2">
+        <v>24792.94962222617</v>
+      </c>
+      <c r="I17" s="2">
+        <v>23871.44151803538</v>
+      </c>
+      <c r="J17" s="2">
+        <v>18808.2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>13.45393816871038</v>
+      </c>
+      <c r="L17" s="1">
+        <v>33.32042997756475</v>
+      </c>
+      <c r="M17" s="2">
+        <v>14490.81174069731</v>
+      </c>
+      <c r="N17" s="2">
+        <v>10080</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>10080</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>